--- a/otsuka_szbp1/Otsuka_SzBP_Table1_20251107.xlsx
+++ b/otsuka_szbp1/Otsuka_SzBP_Table1_20251107.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jason/Documents/GitHub/Clients/otsuka_szbp1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55699F88-368B-6948-8944-4BF41F2EE9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CA97BC-59FB-CA48-883D-5A35EE7B7FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3500" yWindow="-23100" windowWidth="34960" windowHeight="17020" xr2:uid="{B9B1193B-EC69-C747-9EE3-9BD681824387}"/>
+    <workbookView xWindow="-3500" yWindow="-23100" windowWidth="28420" windowHeight="17020" activeTab="4" xr2:uid="{B9B1193B-EC69-C747-9EE3-9BD681824387}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="7" r:id="rId1"/>
     <sheet name="Intervention" sheetId="6" r:id="rId2"/>
     <sheet name="Medications" sheetId="8" r:id="rId3"/>
     <sheet name="Definitions" sheetId="3" r:id="rId4"/>
+    <sheet name="WuComparison" sheetId="9" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="1433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2002" uniqueCount="1506">
   <si>
     <t>.Typical</t>
   </si>
@@ -4338,6 +4339,247 @@
   </si>
   <si>
     <t>lamotrigine</t>
+  </si>
+  <si>
+    <t>I. Demographics at the index date</t>
+  </si>
+  <si>
+    <t>II. Health system utilization in the past 12 months</t>
+  </si>
+  <si>
+    <t>III. Clinical diagnoses &amp; comorbid conditions</t>
+  </si>
+  <si>
+    <t>IV. Psychotropic agents</t>
+  </si>
+  <si>
+    <t>V. Other medications</t>
+  </si>
+  <si>
+    <t>NSAID: Nonsteroidal anti-inflammatory drug</t>
+  </si>
+  <si>
+    <t>Benzodiazepines</t>
+  </si>
+  <si>
+    <t>SNRIs</t>
+  </si>
+  <si>
+    <t>SSRIs</t>
+  </si>
+  <si>
+    <t>TCAs</t>
+  </si>
+  <si>
+    <t>Other antidepressants</t>
+  </si>
+  <si>
+    <t>Valproic acid</t>
+  </si>
+  <si>
+    <t>Lamotrigine</t>
+  </si>
+  <si>
+    <t>Carbamazepine</t>
+  </si>
+  <si>
+    <t>Lithium</t>
+  </si>
+  <si>
+    <t>Antiepileptic agents</t>
+  </si>
+  <si>
+    <t>ACEI/ARBs</t>
+  </si>
+  <si>
+    <t>Anticholinergics</t>
+  </si>
+  <si>
+    <t>Anti-diabetic agents</t>
+  </si>
+  <si>
+    <t>Antithrombotic agents</t>
+  </si>
+  <si>
+    <t>Beta-blockers</t>
+  </si>
+  <si>
+    <t>Calcium channel blockers</t>
+  </si>
+  <si>
+    <t>Diureticss</t>
+  </si>
+  <si>
+    <t>Lipid lowering agents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presence of mood component </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Major depressive episode, in the past 12 months </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minor depression, in the past 12 months </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comorbid psychiatric disorder, in the past 12 months </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alcohol use disorder </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anxiety disorder </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sleep disorder </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substance use disorder </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acquired immune deficiency syndrome </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asthma </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back pain </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerebrovascular disease </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chronic kidney disease </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chronic liver disease </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chronic pulmonary disease </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congestive heart failure </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coronary heart disease </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diabetes mellitus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dyslipidemia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fibromyalgia and osteoarthritis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Headache </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hemiplegia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hypertension </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peptic ulcer disease </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peripheral neurological disorder </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peripheral vascular disease </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rheumatological disease </t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of outpatient visits, psychiatric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of outpatient visits, non-psychiatric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number and days of of emergency room visits, psychiatric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number and days  of hospitalizations, psychiatric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number and days of of emergency room visits, non-psychiatric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number and days  of hospitalizations, non-psychiatric </t>
+  </si>
+  <si>
+    <t>Outcomes</t>
+  </si>
+  <si>
+    <t>Hospitalization in 12 months</t>
+  </si>
+  <si>
+    <t>Male sex</t>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>Also have:</t>
+  </si>
+  <si>
+    <t>- ED and hospitalizations in the next 3, 6, and 12 months</t>
+  </si>
+  <si>
+    <t>- Suicide attempt in 3, 6, and 12 months</t>
+  </si>
+  <si>
+    <t>Wu, et al. 2020 (https://jamanetwork.com/journals/jamanetworkopen/fullarticle/2761551)</t>
+  </si>
+  <si>
+    <t>- Receipt of mood stabilizers in 3, 6, and 12 months</t>
+  </si>
+  <si>
+    <r>
+      <t>Treatment switching (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Regimen change, TBD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Schizoaffective disorder</t>
+  </si>
+  <si>
+    <t>- Side effects in 3, 6, and 12 months</t>
+  </si>
+  <si>
+    <t>All listed features are present</t>
+  </si>
+  <si>
+    <t>"Present" mean present already, though should be validated (e.g., diagnosis codes were ICD-9)</t>
   </si>
 </sst>
 </file>
@@ -4347,7 +4589,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4388,12 +4630,48 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4409,6 +4687,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4442,10 +4726,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4479,13 +4764,61 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4871,11 +5204,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0D01C0-5A1A-7F42-B674-107DEA1902CC}">
   <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6833,13 +7166,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E1048576">
-    <cfRule type="expression" dxfId="5" priority="10">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>IF(AND($E1&gt;50,ISNUMBER($E1)),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="11">
+    <cfRule type="expression" dxfId="7" priority="11">
       <formula>IF(OR(_xlfn.TEXTBEFORE($A1," ")="src",_xlfn.TEXTBEFORE($A1," ")="intervention"),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="12">
+    <cfRule type="expression" dxfId="6" priority="12">
       <formula>IF(AND($D1&gt;0.15,ISNUMBER($D1)),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10542,13 +10875,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:J1048576">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>IF(AND($J1&gt;50,ISNUMBER($J1)),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>IF(OR(_xlfn.TEXTBEFORE($A1," ")="src",_xlfn.TEXTBEFORE($A1," ")="intervention"),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="6">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>IF(AND($I1&gt;0.15,ISNUMBER($I1)),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10562,36 +10895,36 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" style="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="56.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>1228</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="19" t="s">
         <v>1229</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>1230</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>1231</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="18" t="s">
         <v>1232</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="20">
         <v>5093</v>
       </c>
       <c r="D2" t="s">
@@ -10599,10 +10932,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="18" t="s">
         <v>1232</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="20">
         <v>4496</v>
       </c>
       <c r="D3" t="s">
@@ -10610,10 +10943,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="18" t="s">
         <v>1232</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="20">
         <v>2403</v>
       </c>
       <c r="D4" t="s">
@@ -10621,10 +10954,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="18" t="s">
         <v>1232</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="20">
         <v>8076</v>
       </c>
       <c r="D5" t="s">
@@ -10632,10 +10965,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="18" t="s">
         <v>1232</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="20">
         <v>6475</v>
       </c>
       <c r="D6" t="s">
@@ -10643,10 +10976,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="18" t="s">
         <v>1238</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="20">
         <v>35636</v>
       </c>
       <c r="D7" t="s">
@@ -10654,10 +10987,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="18" t="s">
         <v>1238</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="20">
         <v>61381</v>
       </c>
       <c r="D8" t="s">
@@ -10665,10 +10998,10 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="18" t="s">
         <v>1238</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="20">
         <v>51272</v>
       </c>
       <c r="D9" t="s">
@@ -10676,10 +11009,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="18" t="s">
         <v>1238</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="20">
         <v>115698</v>
       </c>
       <c r="D10" t="s">
@@ -10687,10 +11020,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="18" t="s">
         <v>1238</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="20">
         <v>679314</v>
       </c>
       <c r="D11" t="s">
@@ -10698,10 +11031,10 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="18" t="s">
         <v>1238</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="20">
         <v>1040028</v>
       </c>
       <c r="D12" t="s">
@@ -10709,10 +11042,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="18" t="s">
         <v>1245</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="20">
         <v>2626</v>
       </c>
       <c r="D13" t="s">
@@ -10720,10 +11053,10 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="20">
         <v>859870</v>
       </c>
       <c r="D14" t="s">
@@ -10731,10 +11064,10 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="20">
         <v>859866</v>
       </c>
       <c r="D15" t="s">
@@ -10742,10 +11075,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="20">
         <v>1719863</v>
       </c>
       <c r="D16" t="s">
@@ -10753,10 +11086,10 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="20">
         <v>1719862</v>
       </c>
       <c r="D17" t="s">
@@ -10764,10 +11097,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="20">
         <v>1719804</v>
       </c>
       <c r="D18" t="s">
@@ -10775,10 +11108,10 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="20">
         <v>1719803</v>
       </c>
       <c r="D19" t="s">
@@ -10786,10 +11119,10 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="20">
         <v>859872</v>
       </c>
       <c r="D20" t="s">
@@ -10797,10 +11130,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="20">
         <v>1719848</v>
       </c>
       <c r="D21" t="s">
@@ -10808,10 +11141,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="20">
         <v>1719847</v>
       </c>
       <c r="C22" t="s">
@@ -10822,10 +11155,10 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="20">
         <v>859871</v>
       </c>
       <c r="D23" t="s">
@@ -10833,10 +11166,10 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="20">
         <v>859868</v>
       </c>
       <c r="D24" t="s">
@@ -10844,10 +11177,10 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="20">
         <v>1720027</v>
       </c>
       <c r="D25" t="s">
@@ -10855,10 +11188,10 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="20">
         <v>1720026</v>
       </c>
       <c r="C26" t="s">
@@ -10869,10 +11202,10 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="20">
         <v>859867</v>
       </c>
       <c r="D27" t="s">
@@ -10880,10 +11213,10 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="20">
         <v>859873</v>
       </c>
       <c r="D28" t="s">
@@ -10891,10 +11224,10 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="20">
         <v>859869</v>
       </c>
       <c r="D29" t="s">
@@ -10902,10 +11235,10 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="A30" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="20">
         <v>576130</v>
       </c>
       <c r="D30" t="s">
@@ -10913,10 +11246,10 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="20">
         <v>859823</v>
       </c>
       <c r="D31" t="s">
@@ -10924,10 +11257,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="A32" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="20">
         <v>859824</v>
       </c>
       <c r="D32" t="s">
@@ -10935,10 +11268,10 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="20">
         <v>859825</v>
       </c>
       <c r="D33" t="s">
@@ -10946,10 +11279,10 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="A34" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="20">
         <v>1359624</v>
       </c>
       <c r="D34" t="s">
@@ -10957,10 +11290,10 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="A35" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="20">
         <v>1360500</v>
       </c>
       <c r="D35" t="s">
@@ -10968,10 +11301,10 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="A36" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="20">
         <v>859826</v>
       </c>
       <c r="D36" t="s">
@@ -10979,10 +11312,10 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="A37" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="20">
         <v>859831</v>
       </c>
       <c r="D37" t="s">
@@ -10990,10 +11323,10 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="A38" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="20">
         <v>859833</v>
       </c>
       <c r="D38" t="s">
@@ -11001,10 +11334,10 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="A39" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="20">
         <v>861851</v>
       </c>
       <c r="D39" t="s">
@@ -11012,10 +11345,10 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="A40" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="20">
         <v>563755</v>
       </c>
       <c r="D40" t="s">
@@ -11023,10 +11356,10 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="A41" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="20">
         <v>977390</v>
       </c>
       <c r="D41" t="s">
@@ -11034,10 +11367,10 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="A42" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="20">
         <v>360376</v>
       </c>
       <c r="D42" t="s">
@@ -11045,10 +11378,10 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="A43" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="20">
         <v>25190</v>
       </c>
       <c r="D43" t="s">
@@ -11056,10 +11389,10 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="A44" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="20">
         <v>858046</v>
       </c>
       <c r="D44" t="s">
@@ -11067,10 +11400,10 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="A45" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="20">
         <v>1359483</v>
       </c>
       <c r="D45" t="s">
@@ -11078,10 +11411,10 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="A46" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="20">
         <v>858049</v>
       </c>
       <c r="D46" t="s">
@@ -11089,10 +11422,10 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="A47" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="20">
         <v>1360013</v>
       </c>
       <c r="D47" t="s">
@@ -11100,10 +11433,10 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="A48" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="20">
         <v>858052</v>
       </c>
       <c r="D48" t="s">
@@ -11111,10 +11444,10 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="A49" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="20">
         <v>858053</v>
       </c>
       <c r="C49" t="s">
@@ -11125,10 +11458,10 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="A50" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="20">
         <v>858054</v>
       </c>
       <c r="D50" t="s">
@@ -11136,10 +11469,10 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="A51" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="20">
         <v>858055</v>
       </c>
       <c r="C51" t="s">
@@ -11150,10 +11483,10 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="A52" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="20">
         <v>858056</v>
       </c>
       <c r="D52" t="s">
@@ -11161,10 +11494,10 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="A53" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="20">
         <v>858057</v>
       </c>
       <c r="C53" t="s">
@@ -11175,10 +11508,10 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="A54" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="20">
         <v>2591399</v>
       </c>
       <c r="D54" t="s">
@@ -11186,10 +11519,10 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="A55" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="20">
         <v>2591397</v>
       </c>
       <c r="D55" t="s">
@@ -11197,10 +11530,10 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="A56" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="20">
         <v>2591402</v>
       </c>
       <c r="D56" t="s">
@@ -11208,10 +11541,10 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="A57" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="20">
         <v>2591400</v>
       </c>
       <c r="D57" t="s">
@@ -11219,10 +11552,10 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="A58" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="20">
         <v>1650975</v>
       </c>
       <c r="D58" t="s">
@@ -11230,10 +11563,10 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="A59" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="20">
         <v>1650976</v>
       </c>
       <c r="C59" t="s">
@@ -11244,10 +11577,10 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="A60" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="20">
         <v>1650969</v>
       </c>
       <c r="D60" t="s">
@@ -11255,10 +11588,10 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="A61" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="20">
         <v>1650965</v>
       </c>
       <c r="D61" t="s">
@@ -11266,10 +11599,10 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="A62" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="20">
         <v>1650970</v>
       </c>
       <c r="D62" t="s">
@@ -11277,10 +11610,10 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="A63" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="20">
         <v>1650967</v>
       </c>
       <c r="D63" t="s">
@@ -11288,10 +11621,10 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="A64" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="20">
         <v>1650973</v>
       </c>
       <c r="D64" t="s">
@@ -11299,10 +11632,10 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="A65" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="20">
         <v>1650974</v>
       </c>
       <c r="C65" t="s">
@@ -11313,10 +11646,10 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="A66" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="20">
         <v>858048</v>
       </c>
       <c r="D66" t="s">
@@ -11324,10 +11657,10 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="A67" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="20">
         <v>858051</v>
       </c>
       <c r="C67" t="s">
@@ -11338,10 +11671,10 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="A68" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="20">
         <v>858073</v>
       </c>
       <c r="D68" t="s">
@@ -11349,10 +11682,10 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="A69" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="20">
         <v>858074</v>
       </c>
       <c r="C69" t="s">
@@ -11363,10 +11696,10 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="A70" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="20">
         <v>1650971</v>
       </c>
       <c r="D70" t="s">
@@ -11374,10 +11707,10 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="A71" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="20">
         <v>1650972</v>
       </c>
       <c r="C71" t="s">
@@ -11388,10 +11721,10 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+      <c r="A72" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="20">
         <v>2591393</v>
       </c>
       <c r="D72" t="s">
@@ -11399,10 +11732,10 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="A73" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="20">
         <v>2591391</v>
       </c>
       <c r="D73" t="s">
@@ -11410,10 +11743,10 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+      <c r="A74" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="20">
         <v>1650966</v>
       </c>
       <c r="D74" t="s">
@@ -11421,10 +11754,10 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+      <c r="A75" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="20">
         <v>2591396</v>
       </c>
       <c r="D75" t="s">
@@ -11432,10 +11765,10 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="A76" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="20">
         <v>2591394</v>
       </c>
       <c r="D76" t="s">
@@ -11443,10 +11776,10 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+      <c r="A77" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="20">
         <v>1650968</v>
       </c>
       <c r="C77" t="s">
@@ -11457,10 +11790,10 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+      <c r="A78" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="20">
         <v>2570420</v>
       </c>
       <c r="D78" t="s">
@@ -11468,10 +11801,10 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+      <c r="A79" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="20">
         <v>2570421</v>
       </c>
       <c r="C79" t="s">
@@ -11482,10 +11815,10 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+      <c r="A80" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="20">
         <v>2570419</v>
       </c>
       <c r="C80" t="s">
@@ -11496,10 +11829,10 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+      <c r="A81" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="20">
         <v>2570418</v>
       </c>
       <c r="D81" t="s">
@@ -11507,10 +11840,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+      <c r="A82" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="20">
         <v>864546</v>
       </c>
       <c r="D82" t="s">
@@ -11518,10 +11851,10 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+      <c r="A83" s="18" t="s">
         <v>1246</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="20">
         <v>858045</v>
       </c>
       <c r="D83" t="s">
@@ -11529,10 +11862,10 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+      <c r="A84" s="18" t="s">
         <v>1319</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="20">
         <v>1158261</v>
       </c>
       <c r="D84" t="s">
@@ -11540,10 +11873,10 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+      <c r="A85" s="18" t="s">
         <v>1319</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="20">
         <v>378301</v>
       </c>
       <c r="D85" t="s">
@@ -11551,10 +11884,10 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+      <c r="A86" s="18" t="s">
         <v>1319</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="20">
         <v>402131</v>
       </c>
       <c r="D86" t="s">
@@ -11562,10 +11895,10 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+      <c r="A87" s="18" t="s">
         <v>1319</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="20">
         <v>602964</v>
       </c>
       <c r="D87" t="s">
@@ -11573,10 +11906,10 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+      <c r="A88" s="18" t="s">
         <v>1319</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="20">
         <v>349545</v>
       </c>
       <c r="D88" t="s">
@@ -11584,10 +11917,10 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+      <c r="A89" s="18" t="s">
         <v>1319</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="20">
         <v>368563</v>
       </c>
       <c r="D89" t="s">
@@ -11595,10 +11928,10 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+      <c r="A90" s="18" t="s">
         <v>1319</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="20">
         <v>349490</v>
       </c>
       <c r="D90" t="s">
@@ -11606,10 +11939,10 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+      <c r="A91" s="18" t="s">
         <v>1319</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="20">
         <v>404602</v>
       </c>
       <c r="C91" t="s">
@@ -11620,10 +11953,10 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+      <c r="A92" s="18" t="s">
         <v>1319</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="20">
         <v>615172</v>
       </c>
       <c r="C92" t="s">
@@ -11634,10 +11967,10 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+      <c r="A93" s="18" t="s">
         <v>1319</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="20">
         <v>352307</v>
       </c>
       <c r="C93" t="s">
@@ -11648,10 +11981,10 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+      <c r="A94" s="18" t="s">
         <v>1319</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="20">
         <v>349553</v>
       </c>
       <c r="D94" t="s">
@@ -11659,10 +11992,10 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+      <c r="A95" s="18" t="s">
         <v>1319</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="20">
         <v>352308</v>
       </c>
       <c r="C95" t="s">
@@ -11673,10 +12006,10 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+      <c r="A96" s="18" t="s">
         <v>1319</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="20">
         <v>349547</v>
       </c>
       <c r="D96" t="s">
@@ -11684,10 +12017,10 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+      <c r="A97" s="18" t="s">
         <v>1319</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="20">
         <v>352309</v>
       </c>
       <c r="C97" t="s">
@@ -11698,10 +12031,10 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+      <c r="A98" s="18" t="s">
         <v>1319</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="20">
         <v>352310</v>
       </c>
       <c r="C98" t="s">
@@ -11712,10 +12045,10 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+      <c r="A99" s="18" t="s">
         <v>1319</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="20">
         <v>485496</v>
       </c>
       <c r="D99" t="s">
@@ -11723,10 +12056,10 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+      <c r="A100" s="18" t="s">
         <v>1319</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="20">
         <v>485495</v>
       </c>
       <c r="D100" t="s">
@@ -11734,10 +12067,10 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+      <c r="A101" s="18" t="s">
         <v>1319</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="20">
         <v>1158260</v>
       </c>
       <c r="D101" t="s">
@@ -11745,10 +12078,10 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+      <c r="A102" s="18" t="s">
         <v>1319</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="20">
         <v>643018</v>
       </c>
       <c r="D102" t="s">
@@ -11756,10 +12089,10 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+      <c r="A103" s="18" t="s">
         <v>1319</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="20">
         <v>1295553</v>
       </c>
       <c r="D103" t="s">
@@ -11767,10 +12100,10 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+      <c r="A104" s="18" t="s">
         <v>1319</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="20">
         <v>643019</v>
       </c>
       <c r="D104" t="s">
@@ -11778,10 +12111,10 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+      <c r="A105" s="18" t="s">
         <v>1319</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="20">
         <v>643022</v>
       </c>
       <c r="D105" t="s">
@@ -11789,10 +12122,10 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+      <c r="A106" s="18" t="s">
         <v>1319</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="20">
         <v>643020</v>
       </c>
       <c r="D106" t="s">
@@ -11800,10 +12133,10 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+      <c r="A107" s="18" t="s">
         <v>1319</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="20">
         <v>1998456</v>
       </c>
       <c r="D107" t="s">
@@ -11811,10 +12144,10 @@
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+      <c r="A108" s="18" t="s">
         <v>1319</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="20">
         <v>1998457</v>
       </c>
       <c r="C108" t="s">
@@ -11825,10 +12158,10 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+      <c r="A109" s="18" t="s">
         <v>1319</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="20">
         <v>1998462</v>
       </c>
       <c r="D109" t="s">
@@ -11836,10 +12169,10 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+      <c r="A110" s="18" t="s">
         <v>1319</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="20">
         <v>643021</v>
       </c>
       <c r="D110" t="s">
@@ -11847,10 +12180,10 @@
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+      <c r="A111" s="18" t="s">
         <v>1319</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="20">
         <v>1998463</v>
       </c>
       <c r="C111" t="s">
@@ -11861,10 +12194,10 @@
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+      <c r="A112" s="18" t="s">
         <v>1319</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="20">
         <v>1998451</v>
       </c>
       <c r="D112" t="s">
@@ -11872,10 +12205,10 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+      <c r="A113" s="18" t="s">
         <v>1319</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="20">
         <v>544412</v>
       </c>
       <c r="D113" t="s">
@@ -11883,10 +12216,10 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+      <c r="A114" s="18" t="s">
         <v>1319</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="20">
         <v>544411</v>
       </c>
       <c r="D114" t="s">
@@ -11894,10 +12227,10 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+      <c r="A115" s="18" t="s">
         <v>1319</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="20">
         <v>1998458</v>
       </c>
       <c r="D115" t="s">
@@ -11905,10 +12238,10 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+      <c r="A116" s="18" t="s">
         <v>1319</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="20">
         <v>1998460</v>
       </c>
       <c r="D116" t="s">
@@ -11916,10 +12249,10 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+      <c r="A117" s="18" t="s">
         <v>1319</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="20">
         <v>643023</v>
       </c>
       <c r="D117" t="s">
@@ -11927,10 +12260,10 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
+      <c r="A118" s="18" t="s">
         <v>1319</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="20">
         <v>1998453</v>
       </c>
       <c r="C118" t="s">
@@ -11941,10 +12274,10 @@
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+      <c r="A119" s="18" t="s">
         <v>1319</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="20">
         <v>1998454</v>
       </c>
       <c r="D119" t="s">
@@ -11952,10 +12285,10 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
+      <c r="A120" s="18" t="s">
         <v>1319</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="20">
         <v>1998459</v>
       </c>
       <c r="C120" t="s">
@@ -11966,10 +12299,10 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
+      <c r="A121" s="18" t="s">
         <v>1319</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="20">
         <v>1998461</v>
       </c>
       <c r="C121" t="s">
@@ -11980,10 +12313,10 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
+      <c r="A122" s="18" t="s">
         <v>1319</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="20">
         <v>1998455</v>
       </c>
       <c r="C122" t="s">
@@ -11994,10 +12327,10 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
+      <c r="A123" s="18" t="s">
         <v>1319</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="20">
         <v>1158262</v>
       </c>
       <c r="D123" t="s">
@@ -12005,10 +12338,10 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+      <c r="A124" s="18" t="s">
         <v>1319</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="20">
         <v>402368</v>
       </c>
       <c r="D124" t="s">
@@ -12016,10 +12349,10 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
+      <c r="A125" s="18" t="s">
         <v>1319</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="20">
         <v>602963</v>
       </c>
       <c r="D125" t="s">
@@ -12027,10 +12360,10 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+      <c r="A126" s="18" t="s">
         <v>1319</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="20">
         <v>350663</v>
       </c>
       <c r="D126" t="s">
@@ -12038,10 +12371,10 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
+      <c r="A127" s="18" t="s">
         <v>1319</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="20">
         <v>350654</v>
       </c>
       <c r="D127" t="s">
@@ -12049,10 +12382,10 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
+      <c r="A128" s="18" t="s">
         <v>1319</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="20">
         <v>576524</v>
       </c>
       <c r="D128" t="s">
@@ -12060,10 +12393,10 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
+      <c r="A129" s="18" t="s">
         <v>1319</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="20">
         <v>615171</v>
       </c>
       <c r="D129" t="s">
@@ -12071,10 +12404,10 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
+      <c r="A130" s="18" t="s">
         <v>1319</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="20">
         <v>576003</v>
       </c>
       <c r="D130" t="s">
@@ -12082,10 +12415,10 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
+      <c r="A131" s="18" t="s">
         <v>1319</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="20">
         <v>350670</v>
       </c>
       <c r="D131" t="s">
@@ -12093,10 +12426,10 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
+      <c r="A132" s="18" t="s">
         <v>1319</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="20">
         <v>576004</v>
       </c>
       <c r="D132" t="s">
@@ -12104,10 +12437,10 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
+      <c r="A133" s="18" t="s">
         <v>1319</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="20">
         <v>350664</v>
       </c>
       <c r="D133" t="s">
@@ -12115,10 +12448,10 @@
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
+      <c r="A134" s="18" t="s">
         <v>1319</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="20">
         <v>576005</v>
       </c>
       <c r="D134" t="s">
@@ -12126,10 +12459,10 @@
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
+      <c r="A135" s="18" t="s">
         <v>1319</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="20">
         <v>576006</v>
       </c>
       <c r="D135" t="s">
@@ -12137,10 +12470,10 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
+      <c r="A136" s="18" t="s">
         <v>1373</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="20">
         <v>1371189</v>
       </c>
       <c r="D136" t="s">
@@ -12148,10 +12481,10 @@
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
+      <c r="A137" s="18" t="s">
         <v>1373</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="20">
         <v>1371191</v>
       </c>
       <c r="D137" t="s">
@@ -12159,10 +12492,10 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
+      <c r="A138" s="18" t="s">
         <v>1373</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="20">
         <v>1371192</v>
       </c>
       <c r="D138" t="s">
@@ -12170,10 +12503,10 @@
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
+      <c r="A139" s="18" t="s">
         <v>1373</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="20">
         <v>1371194</v>
       </c>
       <c r="D139" t="s">
@@ -12181,10 +12514,10 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
+      <c r="A140" s="18" t="s">
         <v>1373</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="20">
         <v>1602163</v>
       </c>
       <c r="D140" t="s">
@@ -12192,10 +12525,10 @@
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
+      <c r="A141" s="18" t="s">
         <v>1373</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="20">
         <v>1602169</v>
       </c>
       <c r="D141" t="s">
@@ -12203,10 +12536,10 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
+      <c r="A142" s="18" t="s">
         <v>1373</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="20">
         <v>1602171</v>
       </c>
       <c r="D142" t="s">
@@ -12214,10 +12547,10 @@
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
+      <c r="A143" s="18" t="s">
         <v>1373</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="20">
         <v>1602604</v>
       </c>
       <c r="C143" t="s">
@@ -12228,10 +12561,10 @@
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
+      <c r="A144" s="18" t="s">
         <v>1373</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="20">
         <v>1602605</v>
       </c>
       <c r="D144" t="s">
@@ -12239,10 +12572,10 @@
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
+      <c r="A145" s="18" t="s">
         <v>1373</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="20">
         <v>1602607</v>
       </c>
       <c r="C145" t="s">
@@ -12253,10 +12586,10 @@
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
+      <c r="A146" s="18" t="s">
         <v>1373</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="20">
         <v>1659812</v>
       </c>
       <c r="D146" t="s">
@@ -12264,10 +12597,10 @@
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
+      <c r="A147" s="18" t="s">
         <v>1373</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="20">
         <v>1659814</v>
       </c>
       <c r="C147" t="s">
@@ -12278,10 +12611,10 @@
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
+      <c r="A148" s="18" t="s">
         <v>1373</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="20">
         <v>1659816</v>
       </c>
       <c r="D148" t="s">
@@ -12289,10 +12622,10 @@
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
+      <c r="A149" s="18" t="s">
         <v>1373</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="20">
         <v>1659818</v>
       </c>
       <c r="C149" t="s">
@@ -12303,18 +12636,18 @@
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
+      <c r="A150" s="18" t="s">
         <v>1373</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="20" t="s">
         <v>1388</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
+      <c r="A151" s="18" t="s">
         <v>1389</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="20">
         <v>2636636</v>
       </c>
       <c r="D151" t="s">
@@ -12322,10 +12655,10 @@
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
+      <c r="A152" s="18" t="s">
         <v>1389</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="20">
         <v>2636637</v>
       </c>
       <c r="D152" t="s">
@@ -12333,10 +12666,10 @@
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
+      <c r="A153" s="18" t="s">
         <v>1389</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="20">
         <v>2636638</v>
       </c>
       <c r="D153" t="s">
@@ -12344,10 +12677,10 @@
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
+      <c r="A154" s="18" t="s">
         <v>1389</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="20">
         <v>2636639</v>
       </c>
       <c r="D154" t="s">
@@ -12355,10 +12688,10 @@
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
+      <c r="A155" s="18" t="s">
         <v>1389</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="20">
         <v>2636640</v>
       </c>
       <c r="C155" t="s">
@@ -12369,10 +12702,10 @@
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
+      <c r="A156" s="18" t="s">
         <v>1389</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="20">
         <v>2636641</v>
       </c>
       <c r="D156" t="s">
@@ -12380,10 +12713,10 @@
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
+      <c r="A157" s="18" t="s">
         <v>1389</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="20">
         <v>2636645</v>
       </c>
       <c r="D157" t="s">
@@ -12391,10 +12724,10 @@
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
+      <c r="A158" s="18" t="s">
         <v>1389</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="20">
         <v>2636646</v>
       </c>
       <c r="C158" t="s">
@@ -12405,18 +12738,18 @@
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
+      <c r="A159" s="18" t="s">
         <v>1389</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="20" t="s">
         <v>1398</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
+      <c r="A160" s="18" t="s">
         <v>1399</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="20">
         <v>1673272</v>
       </c>
       <c r="D160" t="s">
@@ -12424,10 +12757,10 @@
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
+      <c r="A161" s="18" t="s">
         <v>1399</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="20">
         <v>1673276</v>
       </c>
       <c r="D161" t="s">
@@ -12435,10 +12768,10 @@
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
+      <c r="A162" s="18" t="s">
         <v>1399</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="20">
         <v>1673271</v>
       </c>
       <c r="D162" t="s">
@@ -12446,10 +12779,10 @@
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
+      <c r="A163" s="18" t="s">
         <v>1399</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="20">
         <v>1673280</v>
       </c>
       <c r="C163" t="s">
@@ -12460,10 +12793,10 @@
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
+      <c r="A164" s="18" t="s">
         <v>1399</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="20">
         <v>1925266</v>
       </c>
       <c r="D164" t="s">
@@ -12471,10 +12804,10 @@
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
+      <c r="A165" s="18" t="s">
         <v>1399</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="20">
         <v>1925264</v>
       </c>
       <c r="C165" t="s">
@@ -12485,10 +12818,10 @@
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
+      <c r="A166" s="18" t="s">
         <v>1399</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="20">
         <v>1925263</v>
       </c>
       <c r="D166" t="s">
@@ -12496,10 +12829,10 @@
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
+      <c r="A167" s="18" t="s">
         <v>1399</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="20">
         <v>1673274</v>
       </c>
       <c r="C167" t="s">
@@ -12510,10 +12843,10 @@
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
+      <c r="A168" s="18" t="s">
         <v>1399</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="20">
         <v>1673278</v>
       </c>
       <c r="C168" t="s">
@@ -12524,10 +12857,10 @@
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
+      <c r="A169" s="18" t="s">
         <v>1399</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="20">
         <v>2049345</v>
       </c>
       <c r="D169" t="s">
@@ -12535,10 +12868,10 @@
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
+      <c r="A170" s="18" t="s">
         <v>1399</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="20">
         <v>2049343</v>
       </c>
       <c r="C170" t="s">
@@ -12549,10 +12882,10 @@
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
+      <c r="A171" s="18" t="s">
         <v>1399</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="20">
         <v>2049342</v>
       </c>
       <c r="D171" t="s">
@@ -12560,10 +12893,10 @@
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
+      <c r="A172" s="18" t="s">
         <v>1399</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="20">
         <v>1673265</v>
       </c>
       <c r="D172" t="s">
@@ -12571,10 +12904,10 @@
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
+      <c r="A173" s="18" t="s">
         <v>1399</v>
       </c>
-      <c r="B173">
+      <c r="B173" s="20">
         <v>1673268</v>
       </c>
       <c r="D173" t="s">
@@ -12582,10 +12915,10 @@
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
+      <c r="A174" s="18" t="s">
         <v>1399</v>
       </c>
-      <c r="B174">
+      <c r="B174" s="20">
         <v>1673267</v>
       </c>
       <c r="D174" t="s">
@@ -12593,10 +12926,10 @@
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
+      <c r="A175" s="18" t="s">
         <v>1399</v>
       </c>
-      <c r="B175">
+      <c r="B175" s="20">
         <v>1673275</v>
       </c>
       <c r="D175" t="s">
@@ -12604,10 +12937,10 @@
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
+      <c r="A176" s="18" t="s">
         <v>1399</v>
       </c>
-      <c r="B176">
+      <c r="B176" s="20">
         <v>1673266</v>
       </c>
       <c r="D176" t="s">
@@ -12615,10 +12948,10 @@
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
+      <c r="A177" s="18" t="s">
         <v>1399</v>
       </c>
-      <c r="B177">
+      <c r="B177" s="20">
         <v>1673279</v>
       </c>
       <c r="D177" t="s">
@@ -12626,10 +12959,10 @@
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
+      <c r="A178" s="18" t="s">
         <v>1399</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="20">
         <v>1925265</v>
       </c>
       <c r="D178" t="s">
@@ -12637,10 +12970,10 @@
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
+      <c r="A179" s="18" t="s">
         <v>1399</v>
       </c>
-      <c r="B179">
+      <c r="B179" s="20">
         <v>1925262</v>
       </c>
       <c r="D179" t="s">
@@ -12648,10 +12981,10 @@
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
+      <c r="A180" s="18" t="s">
         <v>1399</v>
       </c>
-      <c r="B180">
+      <c r="B180" s="20">
         <v>1925261</v>
       </c>
       <c r="D180" t="s">
@@ -12659,10 +12992,10 @@
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
+      <c r="A181" s="18" t="s">
         <v>1399</v>
       </c>
-      <c r="B181">
+      <c r="B181" s="20">
         <v>1673269</v>
       </c>
       <c r="D181" t="s">
@@ -12670,10 +13003,10 @@
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
+      <c r="A182" s="18" t="s">
         <v>1399</v>
       </c>
-      <c r="B182">
+      <c r="B182" s="20">
         <v>1673277</v>
       </c>
       <c r="D182" t="s">
@@ -12681,10 +13014,10 @@
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
+      <c r="A183" s="18" t="s">
         <v>1399</v>
       </c>
-      <c r="B183">
+      <c r="B183" s="20">
         <v>2049344</v>
       </c>
       <c r="D183" t="s">
@@ -12692,10 +13025,10 @@
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
+      <c r="A184" s="18" t="s">
         <v>1399</v>
       </c>
-      <c r="B184">
+      <c r="B184" s="20">
         <v>2049341</v>
       </c>
       <c r="D184" t="s">
@@ -12703,10 +13036,10 @@
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
+      <c r="A185" s="18" t="s">
         <v>1399</v>
       </c>
-      <c r="B185">
+      <c r="B185" s="20">
         <v>2049340</v>
       </c>
       <c r="D185" t="s">
@@ -12714,10 +13047,10 @@
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
+      <c r="A186" s="18" t="s">
         <v>1427</v>
       </c>
-      <c r="B186">
+      <c r="B186" s="20">
         <v>42351</v>
       </c>
       <c r="D186" t="s">
@@ -12725,10 +13058,10 @@
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
+      <c r="A187" s="18" t="s">
         <v>1427</v>
       </c>
-      <c r="B187">
+      <c r="B187" s="20">
         <v>40254</v>
       </c>
       <c r="D187" t="s">
@@ -12736,10 +13069,10 @@
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
+      <c r="A188" s="18" t="s">
         <v>1427</v>
       </c>
-      <c r="B188">
+      <c r="B188" s="20">
         <v>1099568</v>
       </c>
       <c r="D188" t="s">
@@ -12747,10 +13080,10 @@
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
+      <c r="A189" s="18" t="s">
         <v>1427</v>
       </c>
-      <c r="B189">
+      <c r="B189" s="20">
         <v>2002</v>
       </c>
       <c r="D189" t="s">
@@ -12758,10 +13091,10 @@
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
+      <c r="A190" s="18" t="s">
         <v>1427</v>
       </c>
-      <c r="B190">
+      <c r="B190" s="20">
         <v>28439</v>
       </c>
       <c r="D190" t="s">
@@ -12769,6 +13102,16 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:A5000">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>IF($A1&lt;&gt;$A2,1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:D5000">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+      <formula>IF($A1&lt;&gt;$A2,1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13708,4 +14051,484 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB616C1-0245-A145-9C5E-CC32BFF16766}">
+  <dimension ref="A1:D70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="75.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B1" s="23"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B3" s="25">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B4" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B6" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B7" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B8" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B9" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B10" s="26"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B11" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B12" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B13" s="26"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B14" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B15" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B16" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B20" s="26"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B23" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B24" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B27" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B28" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B30" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B31" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B33" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B34" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B35" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B36" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B37" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B38" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B40" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B44" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B45" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B46" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B48" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B49" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="16" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B50" s="26"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="16" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B61" s="26"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A3:B70">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>IF($B3=1,1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="https://jamanetwork.com/journals/jamanetworkopen/fullarticle/2761551" xr:uid="{1057DB1C-B8D0-BC46-843B-E05DBD57B462}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>